--- a/data/trans_dic/P79$impuestos_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P79$impuestos_2023-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.07343208022946215</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.04859051334351741</v>
+        <v>0.04859051334351738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05977632743439582</v>
+        <v>0.05977632743439584</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05391125727001151</v>
+        <v>0.05166185255279161</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03345545048244622</v>
+        <v>0.0346825105750392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0454971302907339</v>
+        <v>0.04558338729734576</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1006155958035816</v>
+        <v>0.1021779791354583</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0677916883632031</v>
+        <v>0.0679075464164105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07543763189720384</v>
+        <v>0.07423902752568982</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00599690508729265</v>
+        <v>0.005540563314462801</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008485401987825197</v>
+        <v>0.008011317722787761</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008677228714363583</v>
+        <v>0.008865921634949453</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02644544570136086</v>
+        <v>0.0253358398211857</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02004478421444051</v>
+        <v>0.02022187161449328</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01956098986633257</v>
+        <v>0.01992453043512282</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.003894865313371684</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.003350669132001811</v>
+        <v>0.00335066913200181</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0008127670298727602</v>
+        <v>0.0008209804287513417</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001424023631379108</v>
+        <v>0.001454042726742631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0015107792977549</v>
+        <v>0.001617978783456124</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.007372306602220012</v>
+        <v>0.007781961136236024</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.009462428429335073</v>
+        <v>0.008952402383828826</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.00647438169901531</v>
+        <v>0.0068123958447335</v>
       </c>
     </row>
     <row r="13">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009931073271833782</v>
+        <v>0.01019910411332538</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00975767076611098</v>
+        <v>0.009601466132375931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01063161110046178</v>
+        <v>0.01054700785667186</v>
       </c>
     </row>
     <row r="18">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01878234077293652</v>
+        <v>0.01839782392501727</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01659885415580116</v>
+        <v>0.01630344813890132</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01609708339563929</v>
+        <v>0.01580967520358163</v>
       </c>
     </row>
     <row r="19">
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23328</v>
+        <v>22354</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17673</v>
+        <v>18321</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43721</v>
+        <v>43803</v>
       </c>
     </row>
     <row r="7">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43537</v>
+        <v>44213</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35811</v>
+        <v>35872</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>72492</v>
+        <v>71340</v>
       </c>
     </row>
     <row r="8">
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5717</v>
+        <v>5282</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9391</v>
+        <v>8866</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17875</v>
+        <v>18264</v>
       </c>
     </row>
     <row r="11">
@@ -1043,13 +1043,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25211</v>
+        <v>24154</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22183</v>
+        <v>22379</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40296</v>
+        <v>41045</v>
       </c>
     </row>
     <row r="12">
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1479</v>
+        <v>1510</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3144</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="15">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7686</v>
+        <v>8113</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9825</v>
+        <v>9295</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13472</v>
+        <v>14175</v>
       </c>
     </row>
     <row r="16">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33714</v>
+        <v>34624</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>34851</v>
+        <v>34293</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>74064</v>
+        <v>73475</v>
       </c>
     </row>
     <row r="23">
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>63762</v>
+        <v>62457</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>59285</v>
+        <v>58230</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>112139</v>
+        <v>110137</v>
       </c>
     </row>
     <row r="24">
